--- a/xlsx/家常菜_intext.xlsx
+++ b/xlsx/家常菜_intext.xlsx
@@ -29,7 +29,7 @@
     <t>黄志忠</t>
   </si>
   <si>
-    <t>政策_政策_美國_家常菜</t>
+    <t>政策_政策_美国_家常菜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E5%B0%8F%E9%9D%92</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9C%9F%E4%BC%8A_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>黃真伊 (電視劇)</t>
+    <t>黄真伊 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%AC%E7%88%B1%E6%83%85%E6%95%85%E4%BA%8B</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E6%84%9B%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>戀愛世紀</t>
+    <t>恋爱世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%82%A0%E9%95%B7%E5%81%87%E6%9C%9F</t>
   </si>
   <si>
-    <t>悠長假期</t>
+    <t>悠长假期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E6%B5%B7%E8%B1%AA%E6%83%85</t>
   </si>
   <si>
-    <t>義海豪情</t>
+    <t>义海豪情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B5%92%E4%BC%A0_(2011%E5%B9%B4%E7%94%B5%E8%A7%86%E5%89%A7)</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E7%9A%84%E7%87%A6%E7%88%9B%E4%BA%BA%E7%94%9F</t>
   </si>
   <si>
-    <t>我的燦爛人生</t>
+    <t>我的灿烂人生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%82%AC%E5%B4%96_(%E7%94%B5%E8%A7%86%E5%89%A7)</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%81%8A%E8%A8%98_(2011%E5%B9%B4%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>西遊記 (2011年電視劇)</t>
+    <t>西游记 (2011年电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%AE%AE%E7%94%84%E5%AC%9B%E5%82%B3_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>後宮甄嬛傳 (電視劇)</t>
+    <t>后宫甄嬛传 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E6%9C%AF_(%E7%94%B5%E8%A7%86%E5%89%A7)</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8B%E5%94%90%E6%BC%94%E7%BE%A9_(2013%E5%B9%B4%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>隋唐演義 (2013年電視劇)</t>
+    <t>隋唐演义 (2013年电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%93%81%E5%A4%A7%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>極品大作戰</t>
+    <t>极品大作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%81%8B%E7%88%B1%E6%97%B6%E4%BB%A3</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%99%B5%E7%8E%8B_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>蘭陵王 (電視劇)</t>
+    <t>兰陵王 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%88%B8%E7%88%B8</t>
@@ -455,13 +455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E5%95%9F%E7%A4%BA%E9%8C%84</t>
   </si>
   <si>
-    <t>生活啟示錄</t>
+    <t>生活启示录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%80%E5%88%A9%E4%BB%81%E5%B8%AB</t>
   </si>
   <si>
-    <t>犀利仁師</t>
+    <t>犀利仁师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%83%85%E6%9C%80%E7%BE%8E%E4%B8%BD</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%AD%90%E5%A4%AB_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>衛子夫 (電視劇)</t>
+    <t>卫子夫 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E8%BD%AC%E6%8A%98%E4%B8%AD%E7%9A%84%E9%82%93%E5%B0%8F%E5%B9%B3</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E9%AB%98%E7%B2%B1_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>紅高粱 (電視劇)</t>
+    <t>红高粱 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%89%E6%9D%89%E6%9D%A5%E4%BA%86</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E4%BB%A5%E7%AC%99%E7%B0%AB%E9%BB%98_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>何以笙簫默 (電視劇)</t>
+    <t>何以笙箫默 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%A4%A7_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>長大 (電視劇)</t>
+    <t>长大 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%87%A1%E7%9A%84%E4%B8%96%E7%95%8C_(2015%E5%B9%B4%E7%94%B5%E8%A7%86%E5%89%A7)</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AF%E7%90%8A%E6%A6%9C_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>瑯琊榜 (電視劇)</t>
+    <t>瑯琊榜 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A5%BD%E6%97%B6%E5%85%89</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A1%E6%A8%82%E9%A0%8C_(%E7%AC%AC%E4%B8%80%E5%AD%A3)</t>
   </si>
   <si>
-    <t>歡樂頌 (第一季)</t>
+    <t>欢乐颂 (第一季)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E5%B9%B4%E9%9D%92%E6%98%A5%E6%88%91%E4%BB%AC%E6%AD%A3%E5%A5%BD</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E5%B9%B4%E8%8A%B1%E9%96%8B%E6%9C%88%E6%AD%A3%E5%9C%93</t>
   </si>
   <si>
-    <t>那年花開月正圓</t>
+    <t>那年花开月正圆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E5%A4%A7%E7%94%9F%E6%B4%BB</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A6%82%E6%87%BF%E5%82%B3</t>
   </si>
   <si>
-    <t>如懿傳</t>
+    <t>如懿传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AC%E8%A7%92%E4%B9%8B%E6%81%8B</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%B8%E5%A9%9A%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>裸婚時代</t>
+    <t>裸婚时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AD%E5%88%BA</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%BD%E5%85%89%E5%A4%A9%E4%BD%BF</t>
   </si>
   <si>
-    <t>陽光天使</t>
+    <t>阳光天使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%BB%E7%88%B6_(%E7%94%B5%E8%A7%86%E5%89%A7)</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E7%9A%84%E6%84%9B%E9%87%91%E6%9E%9D%E7%8E%89%E8%91%89</t>
   </si>
   <si>
-    <t>我的愛金枝玉葉</t>
+    <t>我的爱金枝玉叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E6%9D%91%E7%88%B1%E6%83%85</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%84%E7%8F%A0%E6%A0%BC%E6%A0%BC_(2011%E5%B9%B4%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>還珠格格 (2011年電視劇)</t>
+    <t>还珠格格 (2011年电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%B8%8D%E5%B0%8F%E5%BF%83%E7%88%B1%E4%B8%8A%E4%BD%A0</t>
@@ -899,31 +899,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E4%B8%8D%E7%A3%A8%E6%BB%85%E7%9A%84%E7%95%AA%E8%99%9F</t>
   </si>
   <si>
-    <t>永不磨滅的番號</t>
+    <t>永不磨灭的番号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%AE%AE%E7%BE%8E%E4%BA%BA%E5%A4%A9%E4%B8%8B</t>
   </si>
   <si>
-    <t>唐宮美人天下</t>
+    <t>唐宫美人天下</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%BF%E7%9A%84%E8%AA%98%E6%83%91</t>
   </si>
   <si>
-    <t>天使的誘惑</t>
+    <t>天使的诱惑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E6%AD%A5%E9%A9%9A%E5%BF%83_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>步步驚心 (電視劇)</t>
+    <t>步步惊心 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%BA%BA%E5%BF%83%E8%A8%88</t>
   </si>
   <si>
-    <t>美人心計</t>
+    <t>美人心计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E5%AE%AB_(%E7%94%B5%E8%A7%86%E5%89%A7)</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%BE%E4%B8%96%E7%9A%87%E5%A6%83</t>
   </si>
   <si>
-    <t>傾世皇妃</t>
+    <t>倾世皇妃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%88%99%E5%A4%A9%E7%A7%98%E5%8F%B2</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E8%97%A5%E5%B1%80%E7%9A%84%E5%85%92%E5%AD%90%E5%80%91</t>
   </si>
   <si>
-    <t>松藥局的兒子們</t>
+    <t>松药局的儿子们</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BD%E8%BF%90%E4%BA%A4%E5%93%8D%E6%9B%B2_(2011%E5%B9%B4%E7%94%B5%E8%A7%86%E5%89%A7)</t>
